--- a/examples/data/20220720 ITR Tool Sample Data.xlsx
+++ b/examples/data/20220720 ITR Tool Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CCEA65-B657-0840-8C41-A7A5A1EAAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4555F68C-9BD1-0248-B3E0-3DBBB958C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11700" windowWidth="53260" windowHeight="26600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11700" windowWidth="53260" windowHeight="26600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -2093,9 +2093,6 @@
     <t>company_isin</t>
   </si>
   <si>
-    <t>investment_value</t>
-  </si>
-  <si>
     <t>Mpassenger km</t>
   </si>
   <si>
@@ -2178,6 +2175,9 @@
   </si>
   <si>
     <t>kg CO2/kWh</t>
+  </si>
+  <si>
+    <t>investment_value [USD]</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2311,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2518,7 +2518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2527,7 +2527,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2550,10 +2550,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2562,14 +2561,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2579,7 +2576,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2607,70 +2604,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2683,10 +2668,8 @@
     <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
@@ -2694,15 +2677,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3617,10 +3592,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3940,8 +3911,8 @@
   </sheetPr>
   <dimension ref="A1:AZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AQ71" sqref="AQ71"/>
@@ -5078,34 +5049,34 @@
       <c r="P9" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9">
         <v>625072</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9">
         <v>581703</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9">
         <v>678403</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9">
         <v>678967</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9">
         <v>699713</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9">
         <v>510911</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9">
         <v>538622</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9">
         <v>354095</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9">
         <v>130090</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9">
         <v>134849</v>
       </c>
       <c r="AE9" s="19" t="str">
@@ -5136,38 +5107,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM9" s="23">
+      <c r="AM9">
         <v>71714741</v>
       </c>
-      <c r="AN9" s="23">
+      <c r="AN9">
         <v>73093077</v>
       </c>
-      <c r="AO9" s="23">
+      <c r="AO9">
         <v>132520346</v>
       </c>
-      <c r="AP9" s="23">
+      <c r="AP9">
         <v>117682832</v>
       </c>
-      <c r="AQ9" s="23">
+      <c r="AQ9">
         <v>121705368</v>
       </c>
-      <c r="AT9" s="24">
+      <c r="AT9" s="23">
         <f>AM9*0.85/128</f>
         <v>476230.70195312501</v>
       </c>
-      <c r="AU9" s="24">
+      <c r="AU9" s="23">
         <f>AN9*0.85/127.5</f>
         <v>487287.18</v>
       </c>
-      <c r="AV9" s="24">
+      <c r="AV9" s="23">
         <f>AO9*0.85/127</f>
         <v>886947.19763779524</v>
       </c>
-      <c r="AW9" s="24">
+      <c r="AW9" s="23">
         <f>AP9*0.85/99.1</f>
         <v>1009388.569122099</v>
       </c>
-      <c r="AX9" s="24">
+      <c r="AX9" s="23">
         <f>AQ9*0.85/115.9</f>
         <v>892576.03796376183</v>
       </c>
@@ -5277,30 +5248,30 @@
         <v>35.6</v>
       </c>
       <c r="AK10" s="19"/>
-      <c r="AM10" s="93">
+      <c r="AM10" s="83">
         <f>AT10*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AN10" s="93">
+      <c r="AN10" s="83">
         <f t="shared" ref="AN10:AQ10" si="2">AU10*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AO10" s="93">
+      <c r="AO10" s="83">
         <f t="shared" si="2"/>
         <v>946.27100840336141</v>
       </c>
-      <c r="AP10" s="93">
+      <c r="AP10" s="83">
         <f t="shared" si="2"/>
         <v>822.359943977591</v>
       </c>
-      <c r="AQ10" s="93">
+      <c r="AQ10" s="83">
         <f t="shared" si="2"/>
         <v>834.55532212885146</v>
       </c>
-      <c r="AT10" s="25">
+      <c r="AT10" s="24">
         <v>12570</v>
       </c>
-      <c r="AU10" s="25">
+      <c r="AU10" s="24">
         <v>12570</v>
       </c>
       <c r="AV10">
@@ -5356,10 +5327,10 @@
       <c r="N11">
         <v>3187800000</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" t="s">
         <v>99</v>
       </c>
       <c r="Q11">
@@ -5482,10 +5453,10 @@
       <c r="N12" s="22">
         <v>239535000000</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>94</v>
       </c>
       <c r="R12">
@@ -5559,15 +5530,15 @@
       <c r="AQ12">
         <v>611</v>
       </c>
-      <c r="AT12" s="96">
+      <c r="AT12" s="85">
         <f>9100*AM12/$AP12</f>
         <v>9568.2675814751292</v>
       </c>
-      <c r="AU12" s="96">
+      <c r="AU12" s="85">
         <f>9100*AN12/$AP12</f>
         <v>9802.4013722126929</v>
       </c>
-      <c r="AV12" s="96">
+      <c r="AV12" s="85">
         <f>9100*AO12/$AP12</f>
         <v>9974.0994854202399</v>
       </c>
@@ -5864,7 +5835,7 @@
       <c r="K15">
         <v>5829002000</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="76">
         <f>M15</f>
         <v>3154921000</v>
       </c>
@@ -5874,10 +5845,10 @@
       <c r="N15">
         <v>3758771000</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" t="s">
         <v>99</v>
       </c>
       <c r="Q15">
@@ -5971,18 +5942,18 @@
       <c r="I16">
         <v>2019</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="76">
         <f>J8</f>
         <v>3528768075</v>
       </c>
       <c r="K16">
         <v>1639605000</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="76">
         <f t="shared" ref="L16:M16" si="11">L8</f>
         <v>6659087075</v>
       </c>
-      <c r="M16" s="85">
+      <c r="M16" s="76">
         <f t="shared" si="11"/>
         <v>6668864075</v>
       </c>
@@ -6853,11 +6824,11 @@
       <c r="AQ22">
         <v>11.6</v>
       </c>
-      <c r="AS22" s="85">
+      <c r="AS22" s="76">
         <f>(AE22+AL22)/0.26</f>
         <v>94.615384615384613</v>
       </c>
-      <c r="AT22" s="85">
+      <c r="AT22" s="76">
         <f>(AF22+AM22)/0.23</f>
         <v>86.086956521739125</v>
       </c>
@@ -7399,40 +7370,40 @@
       <c r="N27">
         <v>124977000000</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="P27" t="s">
         <v>81</v>
       </c>
       <c r="Q27">
         <v>9723000</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="25">
         <v>9532000</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="25">
         <v>8841000</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="25">
         <v>8566000</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="25">
         <v>8493000</v>
       </c>
       <c r="X27">
         <v>7061000</v>
       </c>
-      <c r="Y27" s="26">
+      <c r="Y27" s="25">
         <v>17693000</v>
       </c>
-      <c r="Z27" s="26">
+      <c r="Z27" s="25">
         <v>21022000</v>
       </c>
-      <c r="AA27" s="26">
+      <c r="AA27" s="25">
         <v>18864000</v>
       </c>
-      <c r="AB27" s="26">
+      <c r="AB27" s="25">
         <v>13720000</v>
       </c>
       <c r="AE27" s="19">
@@ -7466,15 +7437,15 @@
       <c r="AS27" s="20">
         <v>186212000</v>
       </c>
-      <c r="AT27" s="27">
+      <c r="AT27" s="26">
         <f>195307000+51595000</f>
         <v>246902000</v>
       </c>
-      <c r="AU27" s="26">
+      <c r="AU27" s="25">
         <f>194224000+59050000</f>
         <v>253274000</v>
       </c>
-      <c r="AV27" s="28">
+      <c r="AV27" s="27">
         <f>189463000+69708000</f>
         <v>259171000</v>
       </c>
@@ -7526,46 +7497,46 @@
       <c r="N28" s="22">
         <v>332750000000</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="94" t="s">
-        <v>387</v>
+      <c r="P28" t="s">
+        <v>386</v>
       </c>
       <c r="Q28">
         <v>117</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>115</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>116</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>111</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>105</v>
       </c>
-      <c r="V28" s="95">
+      <c r="V28" s="84">
         <v>103</v>
       </c>
       <c r="X28">
         <v>8</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="25">
         <v>8</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="25">
         <v>8</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="25">
         <v>8</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="25">
         <v>7</v>
       </c>
-      <c r="AC28" s="95">
+      <c r="AC28" s="84">
         <v>6</v>
       </c>
       <c r="AE28" s="19">
@@ -7596,51 +7567,51 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AL28" s="93">
+      <c r="AL28" s="83">
         <f t="shared" ref="AL28:AQ28" si="21">0.43*AS28/1000</f>
         <v>636.11834999999996</v>
       </c>
-      <c r="AM28" s="93">
+      <c r="AM28" s="83">
         <f t="shared" si="21"/>
         <v>625.44574999999998</v>
       </c>
-      <c r="AN28" s="93">
+      <c r="AN28" s="83">
         <f t="shared" si="21"/>
         <v>601.58934999999997</v>
       </c>
-      <c r="AO28" s="93">
+      <c r="AO28" s="83">
         <f t="shared" si="21"/>
         <v>620.26639999999998</v>
       </c>
-      <c r="AP28" s="93">
+      <c r="AP28" s="83">
         <f t="shared" si="21"/>
         <v>590.28895</v>
       </c>
-      <c r="AQ28" s="93">
+      <c r="AQ28" s="83">
         <f t="shared" si="21"/>
         <v>582.59839999999997</v>
       </c>
-      <c r="AS28" s="25">
+      <c r="AS28" s="24">
         <f>4053*365</f>
         <v>1479345</v>
       </c>
-      <c r="AT28" s="25">
+      <c r="AT28" s="24">
         <f>3985*365</f>
         <v>1454525</v>
       </c>
-      <c r="AU28" s="25">
+      <c r="AU28" s="24">
         <f>3833*365</f>
         <v>1399045</v>
       </c>
-      <c r="AV28" s="25">
+      <c r="AV28" s="24">
         <f>3952*365</f>
         <v>1442480</v>
       </c>
-      <c r="AW28" s="25">
+      <c r="AW28" s="24">
         <f>3761*365</f>
         <v>1372765</v>
       </c>
-      <c r="AX28" s="25">
+      <c r="AX28" s="24">
         <f>3712*365</f>
         <v>1354880</v>
       </c>
@@ -7686,10 +7657,10 @@
       <c r="N29">
         <v>42301000000</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="23" t="s">
+      <c r="P29" t="s">
         <v>81</v>
       </c>
       <c r="R29" s="20">
@@ -7799,14 +7770,14 @@
       <c r="N30" s="22">
         <v>257035000000</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" t="s">
         <v>161</v>
       </c>
       <c r="R30" s="20"/>
-      <c r="S30" s="23">
+      <c r="S30">
         <v>1442.963</v>
       </c>
       <c r="T30" s="20">
@@ -7819,13 +7790,13 @@
         <v>910</v>
       </c>
       <c r="Y30" s="20"/>
-      <c r="Z30" s="23">
+      <c r="Z30">
         <v>3219.7159999999999</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AA30">
         <v>3040.2930000000001</v>
       </c>
-      <c r="AB30" s="23">
+      <c r="AB30">
         <v>2473.2730000000001</v>
       </c>
       <c r="AC30">
@@ -7859,7 +7830,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AN30" s="23">
+      <c r="AN30">
         <v>398915.81</v>
       </c>
       <c r="AO30">
@@ -7868,20 +7839,20 @@
       <c r="AP30">
         <v>349281.99200000003</v>
       </c>
-      <c r="AQ30" s="25">
+      <c r="AQ30" s="24">
         <v>349281.99200000003</v>
       </c>
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
-      <c r="AV30" s="24">
+      <c r="AV30" s="23">
         <f>AO30*0.7/(309/1.6)</f>
         <v>1577.2225584466019</v>
       </c>
-      <c r="AW30" s="24">
+      <c r="AW30" s="23">
         <f>AP30*0.7/(301/1.6)</f>
         <v>1299.6539237209302</v>
       </c>
-      <c r="AX30" s="24">
+      <c r="AX30" s="23">
         <f>AQ30*0.7/(289/1.6)</f>
         <v>1353.6187925259514</v>
       </c>
@@ -7919,21 +7890,21 @@
       <c r="K31">
         <v>6736467578.2073498</v>
       </c>
-      <c r="L31" s="85">
+      <c r="L31" s="76">
         <f>J31</f>
         <v>21370500000</v>
       </c>
-      <c r="M31" s="85">
+      <c r="M31" s="76">
         <f>J31</f>
         <v>21370500000</v>
       </c>
       <c r="N31">
         <v>40960299959.761497</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" t="s">
         <v>81</v>
       </c>
       <c r="Q31">
@@ -8060,33 +8031,33 @@
       <c r="N32">
         <v>235194000000</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="23" t="s">
-        <v>386</v>
+      <c r="P32" t="s">
+        <v>385</v>
       </c>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
-      <c r="T32" s="23">
+      <c r="T32">
         <v>1589700</v>
       </c>
-      <c r="U32" s="23">
+      <c r="U32">
         <v>1214124</v>
       </c>
-      <c r="V32" s="23">
+      <c r="V32">
         <v>1252906</v>
       </c>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
-      <c r="AA32" s="23">
+      <c r="AA32">
         <v>3721875</v>
       </c>
-      <c r="AB32" s="23">
+      <c r="AB32">
         <v>2599822</v>
       </c>
-      <c r="AC32" s="23">
+      <c r="AC32">
         <v>2150694</v>
       </c>
       <c r="AE32" s="19" t="str">
@@ -8117,24 +8088,24 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO32" s="23">
+      <c r="AO32">
         <v>249384317</v>
       </c>
-      <c r="AP32" s="23">
+      <c r="AP32">
         <v>296411327</v>
       </c>
-      <c r="AQ32" s="29">
+      <c r="AQ32" s="24">
         <v>296411327</v>
       </c>
-      <c r="AV32" s="24">
+      <c r="AV32" s="23">
         <f>AO32*0.85/293</f>
         <v>723469.86160409555</v>
       </c>
-      <c r="AW32" s="24">
+      <c r="AW32" s="23">
         <f>AP32*0.85/280</f>
         <v>899820.09982142854</v>
       </c>
-      <c r="AX32" s="24">
+      <c r="AX32" s="23">
         <f>AQ32*0.85/265</f>
         <v>950753.31301886786</v>
       </c>
@@ -8174,21 +8145,21 @@
       <c r="K33">
         <v>9835514922.9662399</v>
       </c>
-      <c r="L33" s="85">
+      <c r="L33" s="76">
         <f>J33</f>
         <v>1912433600</v>
       </c>
-      <c r="M33" s="85">
+      <c r="M33" s="76">
         <f>J33</f>
         <v>1912433600</v>
       </c>
       <c r="N33">
         <v>13397913513.7817</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" t="s">
         <v>99</v>
       </c>
       <c r="Q33">
@@ -8437,10 +8408,10 @@
       <c r="N35">
         <v>141752000000</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" t="s">
         <v>139</v>
       </c>
-      <c r="P35" s="23" t="s">
+      <c r="P35" t="s">
         <v>59</v>
       </c>
       <c r="R35">
@@ -8530,13 +8501,13 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>389</v>
-      </c>
-      <c r="C36" t="s">
-        <v>390</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -8570,10 +8541,10 @@
       <c r="N36" s="22">
         <v>85373000000</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" t="s">
         <v>64</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" t="s">
         <v>180</v>
       </c>
       <c r="R36">
@@ -8630,10 +8601,10 @@
         <v>39.9</v>
       </c>
       <c r="AK36" s="19"/>
-      <c r="AM36" s="85">
+      <c r="AM36" s="76">
         <v>425</v>
       </c>
-      <c r="AN36" s="85">
+      <c r="AN36" s="76">
         <v>425</v>
       </c>
       <c r="AO36">
@@ -8820,11 +8791,11 @@
       <c r="K38">
         <v>19393506493.5065</v>
       </c>
-      <c r="L38" s="85">
+      <c r="L38" s="76">
         <f>J38</f>
         <v>40783780623.597</v>
       </c>
-      <c r="M38" s="85">
+      <c r="M38" s="76">
         <f>J38</f>
         <v>40783780623.597</v>
       </c>
@@ -9051,7 +9022,7 @@
       <c r="D40" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F40" t="s">
@@ -9463,10 +9434,10 @@
       <c r="N43">
         <v>18344666000</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" t="s">
         <v>58</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" t="s">
         <v>99</v>
       </c>
       <c r="Q43">
@@ -9592,21 +9563,21 @@
       <c r="K44">
         <v>2231600000</v>
       </c>
-      <c r="L44" s="85">
+      <c r="L44" s="76">
         <f>J44</f>
         <v>6077156282</v>
       </c>
-      <c r="M44" s="85">
+      <c r="M44" s="76">
         <f>J44</f>
         <v>6077156282</v>
       </c>
       <c r="N44">
         <v>11024300000</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" t="s">
         <v>58</v>
       </c>
-      <c r="P44" s="23" t="s">
+      <c r="P44" t="s">
         <v>81</v>
       </c>
       <c r="Q44" s="20">
@@ -9667,36 +9638,36 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AS44" s="31">
+      <c r="AS44" s="29">
         <f>27386150+337284+9430179+1135+58481+1356185+7487+317670+11610944</f>
         <v>50505515</v>
       </c>
-      <c r="AT44" s="31">
+      <c r="AT44" s="29">
         <f>31026112+283323+8304127+777+39306+1494512+5994+322935+11280342</f>
         <v>52757428</v>
       </c>
-      <c r="AU44" s="31">
+      <c r="AU44" s="29">
         <f>30506684+465026+10655278+4344+34495+1129399+5996+277653+11385085</f>
         <v>54463960</v>
       </c>
-      <c r="AV44" s="31">
+      <c r="AV44" s="29">
         <f>25067412+190452+9189864+4488+52483+1978567+7145+276564+11751484</f>
         <v>48518459</v>
       </c>
-      <c r="AW44" s="31">
+      <c r="AW44" s="29">
         <f>26746679+224926+7717598+760+62669+1795659+9332+269579+11586013</f>
         <v>48413215</v>
       </c>
     </row>
     <row r="45" spans="1:50">
       <c r="A45" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>393</v>
-      </c>
-      <c r="C45" t="s">
-        <v>394</v>
       </c>
       <c r="D45" t="s">
         <v>172</v>
@@ -9730,10 +9701,10 @@
       <c r="N45" s="22">
         <v>174000000000</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="O45" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="23" t="s">
+      <c r="P45" t="s">
         <v>180</v>
       </c>
       <c r="Q45">
@@ -9818,19 +9789,19 @@
       <c r="AQ45">
         <v>420.4</v>
       </c>
-      <c r="AS45" s="97">
+      <c r="AS45" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AT45" s="97">
+      <c r="AT45" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AU45" s="97">
+      <c r="AU45" s="86">
         <v>996.6600000000002</v>
       </c>
-      <c r="AV45" s="31">
+      <c r="AV45" s="29">
         <v>996.6600000000002</v>
       </c>
-      <c r="AW45" s="31">
+      <c r="AW45" s="29">
         <v>1021.05</v>
       </c>
       <c r="AX45">
@@ -9839,16 +9810,16 @@
     </row>
     <row r="46" spans="1:50">
       <c r="A46" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46" t="s">
         <v>396</v>
-      </c>
-      <c r="C46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D46" t="s">
-        <v>397</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
@@ -9880,11 +9851,11 @@
         <f>635000000000*0.2394</f>
         <v>152019000000</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="O46" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="23" t="s">
-        <v>399</v>
+      <c r="P46" t="s">
+        <v>398</v>
       </c>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
@@ -9909,24 +9880,24 @@
         <v>45.2</v>
       </c>
       <c r="AK46" s="19"/>
-      <c r="AS46" s="99"/>
-      <c r="AT46" s="99">
+      <c r="AS46" s="29"/>
+      <c r="AT46" s="29">
         <f>1000000*AF46/88.7</f>
         <v>636978.57948139799</v>
       </c>
-      <c r="AU46" s="99">
+      <c r="AU46" s="29">
         <f>1000000*AG46/74.2</f>
         <v>675202.15633423172</v>
       </c>
-      <c r="AV46" s="99">
+      <c r="AV46" s="29">
         <f>1000000*AH46/64.6</f>
         <v>832817.33746130043</v>
       </c>
-      <c r="AW46" s="99">
+      <c r="AW46" s="29">
         <f>1000000*AI46/65.9</f>
         <v>732928.67981790588</v>
       </c>
-      <c r="AX46" s="99">
+      <c r="AX46" s="29">
         <f>1000000*AJ46/47.9</f>
         <v>943632.56784968683</v>
       </c>
@@ -10215,21 +10186,21 @@
       <c r="K49">
         <v>55955872344.100899</v>
       </c>
-      <c r="L49" s="85">
+      <c r="L49" s="76">
         <f>J49</f>
         <v>20260000000</v>
       </c>
-      <c r="M49" s="85">
+      <c r="M49" s="76">
         <f>J49</f>
         <v>20260000000</v>
       </c>
       <c r="N49">
         <v>68553124892.036598</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="O49" t="s">
         <v>58</v>
       </c>
-      <c r="P49" s="23" t="s">
+      <c r="P49" t="s">
         <v>99</v>
       </c>
       <c r="Q49">
@@ -10858,7 +10829,7 @@
       <c r="P54" t="s">
         <v>180</v>
       </c>
-      <c r="S54" s="85">
+      <c r="S54" s="76">
         <f>46.6*(52/44.7)</f>
         <v>54.210290827740494</v>
       </c>
@@ -10872,7 +10843,7 @@
         <v>52.3</v>
       </c>
       <c r="W54"/>
-      <c r="Z54" s="85">
+      <c r="Z54" s="76">
         <f>14.7*(19/14.7)</f>
         <v>19</v>
       </c>
@@ -10914,19 +10885,19 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="AN54" s="93">
+      <c r="AN54" s="83">
         <f>AU54*0.43</f>
         <v>2134.52</v>
       </c>
-      <c r="AO54" s="93">
+      <c r="AO54" s="83">
         <f t="shared" ref="AO54:AQ54" si="27">AV54*0.43</f>
         <v>2071.7399999999998</v>
       </c>
-      <c r="AP54" s="93">
+      <c r="AP54" s="83">
         <f t="shared" si="27"/>
         <v>1946.18</v>
       </c>
-      <c r="AQ54" s="93">
+      <c r="AQ54" s="83">
         <f t="shared" si="27"/>
         <v>1930.4849999999999</v>
       </c>
@@ -11182,7 +11153,7 @@
         <v>68</v>
       </c>
       <c r="AK56" s="19"/>
-      <c r="AL56" s="85">
+      <c r="AL56" s="76">
         <f>186+87+1318+582+736</f>
         <v>2909</v>
       </c>
@@ -11206,7 +11177,7 @@
         <f>147+136+6+1010+380+630</f>
         <v>2309</v>
       </c>
-      <c r="AS56" s="85">
+      <c r="AS56" s="76">
         <v>21.44</v>
       </c>
       <c r="AT56">
@@ -11227,16 +11198,16 @@
     </row>
     <row r="57" spans="1:50">
       <c r="A57" t="s">
+        <v>399</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" t="s">
         <v>401</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>402</v>
-      </c>
-      <c r="D57" t="s">
-        <v>403</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
@@ -11342,13 +11313,13 @@
     </row>
     <row r="58" spans="1:50">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
         <v>216</v>
@@ -11388,7 +11359,7 @@
         <v>58</v>
       </c>
       <c r="P58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R58">
         <f>10515907</f>
@@ -11406,7 +11377,7 @@
         <f>9703851</f>
         <v>9703851</v>
       </c>
-      <c r="V58" s="98">
+      <c r="V58" s="87">
         <f>AJ58-AC58</f>
         <v>8521728.0528707132</v>
       </c>
@@ -11427,7 +11398,7 @@
         <f>2389387</f>
         <v>2389387</v>
       </c>
-      <c r="AC58" s="85">
+      <c r="AC58" s="76">
         <f>AB58/AA58*AB58</f>
         <v>2378271.9471292878</v>
       </c>
@@ -11455,11 +11426,11 @@
       <c r="AJ58" s="22">
         <v>10900000</v>
       </c>
-      <c r="AM58" s="85">
+      <c r="AM58" s="76">
         <f>151800000</f>
         <v>151800000</v>
       </c>
-      <c r="AN58" s="85">
+      <c r="AN58" s="76">
         <f>151800000</f>
         <v>151800000</v>
       </c>
@@ -11475,23 +11446,23 @@
         <f>118350000</f>
         <v>118350000</v>
       </c>
-      <c r="AT58" s="85">
+      <c r="AT58" s="76">
         <f>AM58/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AU58" s="85">
+      <c r="AU58" s="76">
         <f>AN58/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AV58" s="85">
+      <c r="AV58" s="76">
         <f>AO58/0.43</f>
         <v>353023255.81395352</v>
       </c>
-      <c r="AW58" s="85">
+      <c r="AW58" s="76">
         <f>AP58/0.43</f>
         <v>305744186.04651165</v>
       </c>
-      <c r="AX58" s="85">
+      <c r="AX58" s="76">
         <f>SUM(AV58:AW58)/2</f>
         <v>329383720.93023258</v>
       </c>
@@ -11664,10 +11635,10 @@
       <c r="N60">
         <v>8275765000</v>
       </c>
-      <c r="O60" s="23" t="s">
+      <c r="O60" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="23" t="s">
+      <c r="P60" t="s">
         <v>99</v>
       </c>
       <c r="Q60">
@@ -11761,17 +11732,17 @@
       <c r="I61">
         <v>2019</v>
       </c>
-      <c r="J61" s="32">
+      <c r="J61" s="30">
         <v>50030000000</v>
       </c>
       <c r="K61">
         <v>10175225448.559799</v>
       </c>
-      <c r="L61" s="85">
+      <c r="L61" s="76">
         <f t="shared" ref="L61:L62" si="40">J61</f>
         <v>50030000000</v>
       </c>
-      <c r="M61" s="85">
+      <c r="M61" s="76">
         <f t="shared" ref="M61:M62" si="41">J61</f>
         <v>50030000000</v>
       </c>
@@ -11888,27 +11859,27 @@
       <c r="I62">
         <v>2019</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="31">
         <v>590000000</v>
       </c>
       <c r="K62">
         <v>7294055000</v>
       </c>
-      <c r="L62" s="85">
+      <c r="L62" s="76">
         <f t="shared" si="40"/>
         <v>590000000</v>
       </c>
-      <c r="M62" s="85">
+      <c r="M62" s="76">
         <f t="shared" si="41"/>
         <v>590000000</v>
       </c>
       <c r="N62">
         <v>14842991000</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="O62" t="s">
         <v>58</v>
       </c>
-      <c r="P62" s="23" t="s">
+      <c r="P62" t="s">
         <v>99</v>
       </c>
       <c r="Q62">
@@ -11991,13 +11962,13 @@
     </row>
     <row r="63" spans="1:50">
       <c r="A63" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
         <v>411</v>
-      </c>
-      <c r="C63" t="s">
-        <v>412</v>
       </c>
       <c r="D63" t="s">
         <v>196</v>
@@ -12015,7 +11986,7 @@
       <c r="I63" s="3">
         <v>44561</v>
       </c>
-      <c r="J63" s="106">
+      <c r="J63" s="89">
         <v>4140000000</v>
       </c>
       <c r="K63">
@@ -12034,10 +12005,10 @@
         <f>12850000000000/115.1038</f>
         <v>111638364676.0576</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" t="s">
         <v>139</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P63" t="s">
         <v>59</v>
       </c>
       <c r="S63">
@@ -12147,27 +12118,27 @@
       <c r="I64">
         <v>2019</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="31">
         <v>352130000</v>
       </c>
       <c r="K64">
         <v>10192818000</v>
       </c>
-      <c r="L64" s="85">
+      <c r="L64" s="76">
         <f>J64</f>
         <v>352130000</v>
       </c>
-      <c r="M64" s="85">
+      <c r="M64" s="76">
         <f>J64</f>
         <v>352130000</v>
       </c>
       <c r="N64">
         <v>12935533000</v>
       </c>
-      <c r="O64" s="23" t="s">
+      <c r="O64" t="s">
         <v>58</v>
       </c>
-      <c r="P64" s="23" t="s">
+      <c r="P64" t="s">
         <v>99</v>
       </c>
       <c r="Q64">
@@ -12276,7 +12247,7 @@
       <c r="I65" s="3">
         <v>44561</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J65" s="22">
         <v>1061000000000</v>
       </c>
       <c r="K65" s="22">
@@ -12292,10 +12263,10 @@
       <c r="N65" s="22">
         <v>62131000000</v>
       </c>
-      <c r="O65" s="23" t="s">
+      <c r="O65" t="s">
         <v>139</v>
       </c>
-      <c r="P65" s="23" t="s">
+      <c r="P65" t="s">
         <v>87</v>
       </c>
       <c r="R65">
@@ -12452,10 +12423,10 @@
       <c r="N66">
         <v>1085200000</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="O66" t="s">
         <v>58</v>
       </c>
-      <c r="P66" s="23" t="s">
+      <c r="P66" t="s">
         <v>99</v>
       </c>
       <c r="Q66">
@@ -12578,11 +12549,11 @@
       <c r="N67" s="22">
         <v>484660000000</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="O67" t="s">
         <v>64</v>
       </c>
-      <c r="P67" s="23" t="s">
-        <v>409</v>
+      <c r="P67" t="s">
+        <v>408</v>
       </c>
       <c r="S67">
         <v>1.92</v>
@@ -12647,24 +12618,24 @@
       <c r="AP67">
         <v>341.35</v>
       </c>
-      <c r="AQ67" s="85">
+      <c r="AQ67" s="76">
         <f>AP67/AO67*AP67</f>
         <v>292.80751495200286</v>
       </c>
-      <c r="AT67" s="24"/>
-      <c r="AU67" s="24">
+      <c r="AT67" s="23"/>
+      <c r="AU67" s="23">
         <f>AN67*0.8/150</f>
         <v>2.2128533333333338</v>
       </c>
-      <c r="AV67" s="24">
+      <c r="AV67" s="23">
         <f>AO67*0.8/140</f>
         <v>2.2739428571428575</v>
       </c>
-      <c r="AW67" s="24">
+      <c r="AW67" s="23">
         <f>AP67*0.8/130</f>
         <v>2.1006153846153848</v>
       </c>
-      <c r="AX67" s="24">
+      <c r="AX67" s="23">
         <f>AQ67*0.8/120</f>
         <v>1.9520500996800192</v>
       </c>
@@ -12712,10 +12683,10 @@
       <c r="N68">
         <v>11608000000</v>
       </c>
-      <c r="O68" s="23" t="s">
+      <c r="O68" t="s">
         <v>58</v>
       </c>
-      <c r="P68" s="23" t="s">
+      <c r="P68" t="s">
         <v>99</v>
       </c>
       <c r="Q68">
@@ -12826,10 +12797,10 @@
       <c r="N69">
         <v>17111600000</v>
       </c>
-      <c r="O69" s="23" t="s">
+      <c r="O69" t="s">
         <v>139</v>
       </c>
-      <c r="P69" s="23" t="s">
+      <c r="P69" t="s">
         <v>59</v>
       </c>
       <c r="T69">
@@ -12927,18 +12898,18 @@
       <c r="I70">
         <v>2019</v>
       </c>
-      <c r="J70" s="85">
+      <c r="J70" s="76">
         <f>J69</f>
         <v>34359400000</v>
       </c>
       <c r="K70">
         <v>4691120536.8652601</v>
       </c>
-      <c r="L70" s="85">
+      <c r="L70" s="76">
         <f>L69</f>
         <v>37551600000</v>
       </c>
-      <c r="M70" s="85">
+      <c r="M70" s="76">
         <f>M69</f>
         <v>37870200000</v>
       </c>
@@ -13521,26 +13492,18 @@
     </row>
     <row r="77" spans="1:50">
       <c r="E77"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
     </row>
     <row r="78" spans="1:50">
       <c r="E78"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="1:50">
       <c r="E79"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="1:50">
       <c r="E80"/>
     </row>
-    <row r="81" spans="5:16">
+    <row r="81" spans="5:5">
       <c r="E81"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -13568,10 +13531,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -13591,31 +13554,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13623,40 +13586,40 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <v>0.67400000000000004</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2040</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>1</v>
       </c>
     </row>
@@ -13673,7 +13636,7 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
       <c r="F3" t="s">
@@ -13682,7 +13645,7 @@
       <c r="G3" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
@@ -13697,7 +13660,7 @@
       <c r="L3">
         <v>2050</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -13714,16 +13677,16 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>2050</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>296</v>
       </c>
       <c r="G4" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>2019</v>
       </c>
       <c r="I4">
@@ -13738,7 +13701,7 @@
       <c r="L4">
         <v>2030</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -13758,26 +13721,26 @@
       <c r="E5" s="18">
         <v>2050</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>297</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
         <v>2005</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>10178945</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="18">
         <v>2050</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -13794,16 +13757,16 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>296</v>
       </c>
       <c r="G6" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>2005</v>
       </c>
       <c r="J6">
@@ -13816,7 +13779,7 @@
       <c r="L6">
         <v>2030</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -13833,28 +13796,28 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>299</v>
       </c>
       <c r="G7" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>2005</v>
       </c>
       <c r="J7" s="20">
         <v>38113792</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -13871,28 +13834,28 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>2050</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>299</v>
       </c>
       <c r="G8" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>2005</v>
       </c>
       <c r="J8" s="20">
         <v>38113792</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L8">
         <v>2040</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="40">
         <v>0.85</v>
       </c>
     </row>
@@ -13909,28 +13872,28 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>2050</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G9" t="s">
         <v>302</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>2000</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>167000000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L9">
         <v>2030</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -13947,28 +13910,28 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>2035</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G10" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>2015</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -13985,25 +13948,25 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G11" t="s">
         <v>302</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2005</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L11">
         <v>2030</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -14020,25 +13983,25 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G12" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>2005</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L12">
         <v>2040</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14055,10 +14018,10 @@
       <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>2050</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G13" t="s">
@@ -14067,7 +14030,7 @@
       <c r="H13">
         <v>2021</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>2019</v>
       </c>
       <c r="J13">
@@ -14079,7 +14042,7 @@
       <c r="L13">
         <v>2030</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14096,10 +14059,10 @@
       <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2050</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G14" t="s">
@@ -14108,19 +14071,19 @@
       <c r="H14">
         <v>2021</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>2019</v>
       </c>
       <c r="J14">
         <v>834562</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L14">
         <v>2030</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14137,10 +14100,10 @@
       <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>2050</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G15" t="s">
@@ -14149,20 +14112,20 @@
       <c r="H15">
         <v>2021</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>2019</v>
       </c>
       <c r="J15">
         <f>'ITR input data'!AH110+'ITR input data'!AO10</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L15">
         <v>2030</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14179,26 +14142,26 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G16" t="s">
         <v>297</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>2020</v>
       </c>
       <c r="J16">
         <f>0.292832151/0.141</f>
         <v>2.0768237659574469</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L16">
         <v>2050</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -14215,7 +14178,7 @@
       <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G17" t="s">
@@ -14224,19 +14187,19 @@
       <c r="H17">
         <v>2021</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>2017</v>
       </c>
       <c r="J17">
         <v>73.8</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L17">
         <v>2028</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <f>73.8/71-1</f>
         <v>3.9436619718309807E-2</v>
       </c>
@@ -14254,7 +14217,7 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G18" t="s">
@@ -14263,20 +14226,20 @@
       <c r="H18">
         <v>2021</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>2017</v>
       </c>
       <c r="J18">
         <f>36830868.09/90796200</f>
         <v>0.40564327681114409</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L18">
         <v>2030</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -14302,7 +14265,7 @@
       <c r="H19">
         <v>2020</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>2005</v>
       </c>
       <c r="J19">
@@ -14314,7 +14277,7 @@
       <c r="L19">
         <v>2040</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14331,7 +14294,7 @@
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G20" t="s">
@@ -14340,19 +14303,19 @@
       <c r="H20">
         <v>2021</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>2019</v>
       </c>
       <c r="J20">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L20">
         <v>2030</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -14369,28 +14332,28 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <v>2050</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <v>2011</v>
       </c>
       <c r="J21">
         <v>24000000</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L21">
         <v>2030</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -14407,10 +14370,10 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>2040</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G22" t="s">
@@ -14419,7 +14382,7 @@
       <c r="H22">
         <v>2021</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>2020</v>
       </c>
       <c r="J22">
@@ -14431,7 +14394,7 @@
       <c r="L22">
         <v>2040</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14448,10 +14411,10 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>2050</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G23" t="s">
@@ -14460,19 +14423,19 @@
       <c r="H23">
         <v>2017</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <v>2005</v>
       </c>
       <c r="J23">
         <v>37700000</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L23">
         <v>2030</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14489,10 +14452,10 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>2050</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G24" t="s">
@@ -14501,19 +14464,19 @@
       <c r="H24">
         <v>2017</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>2005</v>
       </c>
       <c r="J24">
         <v>37700000</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L24">
         <v>2040</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14530,28 +14493,28 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>2050</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G25" t="s">
         <v>302</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>2005</v>
       </c>
       <c r="J25">
         <v>59.347999999999999</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L25">
         <v>2030</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="40">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -14568,28 +14531,28 @@
       <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>2050</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G26" t="s">
         <v>302</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>2005</v>
       </c>
       <c r="J26">
         <v>153000000</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L26">
         <v>2030</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14606,10 +14569,10 @@
       <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>2050</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G27" t="s">
@@ -14618,19 +14581,19 @@
       <c r="H27">
         <v>2020</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>2017</v>
       </c>
       <c r="J27">
         <v>51</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L27">
         <v>2023</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -14647,10 +14610,10 @@
       <c r="D28" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>2050</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G28" t="s">
@@ -14659,19 +14622,19 @@
       <c r="H28">
         <v>2020</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>2019</v>
       </c>
       <c r="J28">
         <v>119</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L28">
         <v>2023</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="40">
         <v>0.08</v>
       </c>
     </row>
@@ -14688,10 +14651,10 @@
       <c r="D29" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>2050</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G29" t="s">
@@ -14700,19 +14663,19 @@
       <c r="H29">
         <v>2020</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <v>2017</v>
       </c>
       <c r="J29">
         <v>51</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L29">
         <v>2030</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14729,10 +14692,10 @@
       <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>2050</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G30" t="s">
@@ -14741,19 +14704,19 @@
       <c r="H30">
         <v>2020</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <v>2019</v>
       </c>
       <c r="J30">
         <v>119</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L30">
         <v>2030</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="40">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -14770,10 +14733,10 @@
       <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>2045</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G31" t="s">
@@ -14782,10 +14745,10 @@
       <c r="H31">
         <v>2021</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>2018</v>
       </c>
-      <c r="J31" s="92">
+      <c r="J31">
         <v>0.23</v>
       </c>
       <c r="K31" t="s">
@@ -14794,7 +14757,7 @@
       <c r="L31">
         <v>2030</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14811,10 +14774,10 @@
       <c r="D32" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>2030</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G32" t="s">
@@ -14823,19 +14786,19 @@
       <c r="H32">
         <v>2020</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>2017</v>
       </c>
       <c r="J32">
         <v>125</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="37" t="s">
         <v>307</v>
       </c>
       <c r="L32">
         <v>2030</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14852,10 +14815,10 @@
       <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>2050</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G33" t="s">
@@ -14864,19 +14827,19 @@
       <c r="H33">
         <v>2020</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>2000</v>
       </c>
       <c r="J33">
         <v>49960899</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L33">
         <v>2050</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14893,10 +14856,10 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>2050</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G34" t="s">
@@ -14905,19 +14868,19 @@
       <c r="H34">
         <v>2030</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>2000</v>
       </c>
       <c r="J34">
         <v>0.4826223</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L34">
         <v>2030</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14934,28 +14897,28 @@
       <c r="D35" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>2045</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G35" t="s">
         <v>302</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>2005</v>
       </c>
       <c r="J35" s="20">
         <v>48455198</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L35">
         <v>2030</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14972,10 +14935,10 @@
       <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>2030</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G36" t="s">
@@ -14984,19 +14947,19 @@
       <c r="H36">
         <v>2019</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
         <v>2018</v>
       </c>
       <c r="J36">
         <v>828107</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L36">
         <v>2030</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15013,10 +14976,10 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <v>2050</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G37" t="s">
@@ -15025,19 +14988,19 @@
       <c r="H37">
         <v>2021</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="31">
         <v>2015</v>
       </c>
       <c r="J37">
         <v>1100</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="37" t="s">
         <v>139</v>
       </c>
       <c r="L37">
         <v>2030</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15054,10 +15017,10 @@
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>2050</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G38" t="s">
@@ -15066,19 +15029,19 @@
       <c r="H38">
         <v>2021</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="31">
         <v>2016</v>
       </c>
       <c r="J38">
         <v>125</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L38">
         <v>2025</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -15095,7 +15058,7 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G39" t="s">
@@ -15104,19 +15067,19 @@
       <c r="H39">
         <v>2015</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>2005</v>
       </c>
       <c r="J39">
         <v>86403130</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L39">
         <v>2045</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="40">
         <v>0.62</v>
       </c>
     </row>
@@ -15133,7 +15096,7 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G40" t="s">
@@ -15142,19 +15105,19 @@
       <c r="H40">
         <v>2021</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>2019</v>
       </c>
       <c r="J40">
         <v>309</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="37" t="s">
         <v>308</v>
       </c>
       <c r="L40">
         <v>2035</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15171,7 +15134,7 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G41" t="s">
@@ -15180,19 +15143,19 @@
       <c r="H41">
         <v>2021</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>2019</v>
       </c>
       <c r="J41">
         <v>3480</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L41">
         <v>2035</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="40">
         <v>0.76</v>
       </c>
     </row>
@@ -15209,7 +15172,7 @@
       <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G42" t="s">
@@ -15218,60 +15181,60 @@
       <c r="H42">
         <v>2020</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>2019</v>
       </c>
       <c r="J42" s="20">
         <v>11925000</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L42">
         <v>2035</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="40">
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="92" customFormat="1">
-      <c r="A43" s="85" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="87">
+      <c r="E43" s="78">
         <v>2040</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="85" t="s">
+      <c r="G43" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="85">
+      <c r="H43" s="76">
         <v>2021</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="79">
         <v>2020</v>
       </c>
-      <c r="J43" s="89">
+      <c r="J43" s="80">
         <v>309</v>
       </c>
-      <c r="K43" s="90" t="s">
+      <c r="K43" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="L43" s="85">
+      <c r="L43" s="76">
         <v>2040</v>
       </c>
-      <c r="M43" s="91">
+      <c r="M43" s="82">
         <v>0.2</v>
       </c>
     </row>
@@ -15288,10 +15251,10 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="28">
         <v>2040</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G44" t="s">
@@ -15300,19 +15263,19 @@
       <c r="H44">
         <v>2021</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <v>2020</v>
       </c>
       <c r="J44" s="20">
         <v>3813946</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L44">
         <v>2040</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15329,10 +15292,10 @@
       <c r="D45" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <v>2050</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G45" t="s">
@@ -15341,19 +15304,19 @@
       <c r="H45">
         <v>2022</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <v>2020</v>
       </c>
       <c r="J45">
         <v>0.93</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L45">
         <v>2031</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="40">
         <v>0.108</v>
       </c>
     </row>
@@ -15370,7 +15333,7 @@
       <c r="D46" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G46" t="s">
@@ -15379,19 +15342,19 @@
       <c r="H46">
         <v>2020</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <v>2010</v>
       </c>
       <c r="J46">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L46">
         <v>2030</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -15408,10 +15371,10 @@
       <c r="D47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="28">
         <v>2050</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G47" t="s">
@@ -15420,37 +15383,37 @@
       <c r="H47">
         <v>2022</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>2021</v>
       </c>
       <c r="J47">
         <v>96</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="37" t="s">
         <v>307</v>
       </c>
       <c r="L47">
         <v>2030</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="40">
         <f>50/96</f>
         <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" t="s">
         <v>389</v>
-      </c>
-      <c r="C48" t="s">
-        <v>390</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G48" t="s">
@@ -15459,36 +15422,36 @@
       <c r="H48">
         <v>2020</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <v>2014</v>
       </c>
       <c r="J48">
         <v>30</v>
       </c>
-      <c r="K48" s="40" t="s">
-        <v>391</v>
+      <c r="K48" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="L48">
         <v>2030</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
         <v>389</v>
-      </c>
-      <c r="C49" t="s">
-        <v>390</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G49" t="s">
@@ -15497,19 +15460,19 @@
       <c r="H49">
         <v>2020</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="31">
         <v>2019</v>
       </c>
       <c r="J49">
         <v>425</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L49">
         <v>2030</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -15526,26 +15489,26 @@
       <c r="D50" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G50" t="s">
         <v>297</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <v>2000</v>
       </c>
       <c r="J50">
         <f>2650/2000</f>
         <v>1.325</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L50">
         <v>2030</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15562,7 +15525,7 @@
       <c r="D51" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <v>2050</v>
       </c>
       <c r="F51" t="s">
@@ -15587,7 +15550,7 @@
       <c r="L51">
         <v>2030</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15604,7 +15567,7 @@
       <c r="D52" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>2050</v>
       </c>
       <c r="F52" t="s">
@@ -15629,7 +15592,7 @@
       <c r="L52">
         <v>2040</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -15646,10 +15609,10 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>2050</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G53" t="s">
@@ -15664,13 +15627,13 @@
       <c r="J53">
         <v>843</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="K53" s="37" t="s">
         <v>309</v>
       </c>
       <c r="L53">
         <v>2025</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="40">
         <v>0.67</v>
       </c>
     </row>
@@ -15687,7 +15650,7 @@
       <c r="D54" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>2050</v>
       </c>
       <c r="F54" t="s">
@@ -15712,7 +15675,7 @@
       <c r="L54">
         <v>2030</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -15729,10 +15692,10 @@
       <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <v>2050</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G55" t="s">
@@ -15741,7 +15704,7 @@
       <c r="H55">
         <v>2019</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="31">
         <v>2010</v>
       </c>
       <c r="J55" s="20">
@@ -15753,24 +15716,24 @@
       <c r="L55">
         <v>2045</v>
       </c>
-      <c r="M55" s="43">
+      <c r="M55" s="40">
         <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="23" t="s">
+      <c r="A56" t="s">
         <v>193</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" t="s">
         <v>195</v>
       </c>
       <c r="D56" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <v>2050</v>
       </c>
       <c r="F56" t="s">
@@ -15794,7 +15757,7 @@
       <c r="L56">
         <v>2030</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -15832,7 +15795,7 @@
       <c r="L57">
         <v>2030</v>
       </c>
-      <c r="M57" s="43">
+      <c r="M57" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -15849,7 +15812,7 @@
       <c r="D58" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G58" t="s">
@@ -15858,7 +15821,7 @@
       <c r="H58">
         <v>2018</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <v>2005</v>
       </c>
       <c r="J58" s="20">
@@ -15870,7 +15833,7 @@
       <c r="L58">
         <v>2030</v>
       </c>
-      <c r="M58" s="43">
+      <c r="M58" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15887,7 +15850,7 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G59" t="s">
@@ -15896,7 +15859,7 @@
       <c r="H59">
         <v>2018</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>2005</v>
       </c>
       <c r="J59" s="20">
@@ -15908,27 +15871,27 @@
       <c r="L59">
         <v>2050</v>
       </c>
-      <c r="M59" s="43">
+      <c r="M59" s="40">
         <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" t="s">
         <v>393</v>
-      </c>
-      <c r="C60" t="s">
-        <v>394</v>
       </c>
       <c r="D60" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>2050</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G60" t="s">
@@ -15937,7 +15900,7 @@
       <c r="H60">
         <v>2021</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <v>2015</v>
       </c>
       <c r="J60" s="20">
@@ -15949,132 +15912,132 @@
       <c r="L60">
         <v>2030</v>
       </c>
-      <c r="M60" s="43">
+      <c r="M60" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="B61" s="77" t="s">
         <v>392</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="C61" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="C61" s="85" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="87">
+      <c r="E61" s="78">
         <v>2050</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G61" s="85" t="s">
+      <c r="G61" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="H61" s="85">
+      <c r="H61" s="76">
         <v>2021</v>
       </c>
-      <c r="I61" s="88">
+      <c r="I61" s="79">
         <v>2015</v>
       </c>
-      <c r="J61" s="89">
+      <c r="J61" s="80">
         <f>526.9/749.7</f>
         <v>0.70281445911698004</v>
       </c>
-      <c r="K61" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="L61" s="85">
+      <c r="K61" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61" s="76">
         <v>2030</v>
       </c>
-      <c r="M61" s="91">
+      <c r="M61" s="82">
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="92" customFormat="1">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" t="s">
         <v>396</v>
       </c>
-      <c r="C62" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E62" s="100">
+      <c r="E62" s="28">
         <v>2050</v>
       </c>
-      <c r="F62" s="100" t="s">
+      <c r="F62" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G62" s="92" t="s">
+      <c r="G62" t="s">
         <v>297</v>
       </c>
-      <c r="H62" s="92">
+      <c r="H62">
         <v>2019</v>
       </c>
-      <c r="I62" s="101">
+      <c r="I62" s="31">
         <v>2019</v>
       </c>
-      <c r="J62" s="102">
+      <c r="J62" s="20">
         <v>53.8</v>
       </c>
-      <c r="K62" s="92" t="s">
+      <c r="K62" t="s">
         <v>64</v>
       </c>
-      <c r="L62" s="92">
+      <c r="L62">
         <v>2024</v>
       </c>
-      <c r="M62" s="103">
+      <c r="M62" s="40">
         <f>1-49.5/J62</f>
         <v>7.9925650557620798E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="92" customFormat="1">
-      <c r="A63" s="85" t="s">
+    <row r="63" spans="1:13">
+      <c r="A63" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" s="77" t="s">
         <v>395</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="C63" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="D63" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="C63" s="85" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" s="85" t="s">
-        <v>397</v>
-      </c>
-      <c r="E63" s="87">
+      <c r="E63" s="78">
         <v>2050</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G63" s="85" t="s">
+      <c r="G63" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="H63" s="85">
+      <c r="H63" s="76">
         <v>2019</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="79">
         <v>2019</v>
       </c>
-      <c r="J63" s="89">
+      <c r="J63" s="80">
         <v>1</v>
       </c>
-      <c r="K63" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="L63" s="85">
+      <c r="K63" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="L63" s="76">
         <v>2024</v>
       </c>
-      <c r="M63" s="91">
+      <c r="M63" s="82">
         <v>0.08</v>
       </c>
     </row>
@@ -16091,10 +16054,10 @@
       <c r="D64" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="28">
         <v>2045</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G64" t="s">
@@ -16103,7 +16066,7 @@
       <c r="H64">
         <v>2021</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="31">
         <v>2016</v>
       </c>
       <c r="J64">
@@ -16115,7 +16078,7 @@
       <c r="L64">
         <v>2045</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16132,10 +16095,10 @@
       <c r="D65" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="28">
         <v>2040</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G65" t="s">
@@ -16144,10 +16107,10 @@
       <c r="H65">
         <v>2019</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <v>2005</v>
       </c>
-      <c r="J65" s="46">
+      <c r="J65" s="43">
         <v>6976930.1319702603</v>
       </c>
       <c r="K65" t="s">
@@ -16156,7 +16119,7 @@
       <c r="L65">
         <v>2040</v>
       </c>
-      <c r="M65" s="43">
+      <c r="M65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16173,10 +16136,10 @@
       <c r="D66" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>2050</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G66" t="s">
@@ -16185,7 +16148,7 @@
       <c r="H66">
         <v>2020</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>2017</v>
       </c>
       <c r="J66">
@@ -16197,7 +16160,7 @@
       <c r="L66">
         <v>2030</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -16214,10 +16177,10 @@
       <c r="D67" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="28">
         <v>2050</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G67" t="s">
@@ -16226,7 +16189,7 @@
       <c r="H67">
         <v>2020</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <v>2017</v>
       </c>
       <c r="J67">
@@ -16238,7 +16201,7 @@
       <c r="L67">
         <v>2040</v>
       </c>
-      <c r="M67" s="43">
+      <c r="M67" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16255,10 +16218,10 @@
       <c r="D68" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <v>2050</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G68" t="s">
@@ -16267,7 +16230,7 @@
       <c r="H68">
         <v>2021</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <v>2010</v>
       </c>
       <c r="J68" s="20">
@@ -16280,7 +16243,7 @@
       <c r="L68">
         <v>2035</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16297,10 +16260,10 @@
       <c r="D69" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <v>2050</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G69" t="s">
@@ -16309,7 +16272,7 @@
       <c r="H69">
         <v>2021</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>2010</v>
       </c>
       <c r="J69" s="20">
@@ -16322,7 +16285,7 @@
       <c r="L69">
         <v>2040</v>
       </c>
-      <c r="M69" s="43">
+      <c r="M69" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16339,10 +16302,10 @@
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>2050</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G70" t="s">
@@ -16351,10 +16314,10 @@
       <c r="H70">
         <v>2020</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <v>2005</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="44">
         <v>16557441</v>
       </c>
       <c r="K70" t="s">
@@ -16363,7 +16326,7 @@
       <c r="L70">
         <v>2030</v>
       </c>
-      <c r="M70" s="43">
+      <c r="M70" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16380,10 +16343,10 @@
       <c r="D71" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="28">
         <v>2040</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G71" t="s">
@@ -16392,7 +16355,7 @@
       <c r="H71">
         <v>2020</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>2010</v>
       </c>
       <c r="J71">
@@ -16404,7 +16367,7 @@
       <c r="L71">
         <v>2030</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16421,10 +16384,10 @@
       <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>2030</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G72" t="s">
@@ -16433,7 +16396,7 @@
       <c r="H72">
         <v>2021</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>2005</v>
       </c>
       <c r="J72" s="20">
@@ -16445,7 +16408,7 @@
       <c r="L72">
         <v>2030</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16462,7 +16425,7 @@
       <c r="D73" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G73" t="s">
@@ -16471,7 +16434,7 @@
       <c r="H73">
         <v>2021</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <v>2018</v>
       </c>
       <c r="J73" s="20">
@@ -16483,7 +16446,7 @@
       <c r="L73">
         <v>2035</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -16500,10 +16463,10 @@
       <c r="D74" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="28">
         <v>2050</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G74" t="s">
@@ -16512,10 +16475,10 @@
       <c r="H74">
         <v>2020</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <v>2019</v>
       </c>
-      <c r="J74" s="48">
+      <c r="J74" s="45">
         <v>0.80243130614229896</v>
       </c>
       <c r="K74" t="s">
@@ -16524,7 +16487,7 @@
       <c r="L74">
         <v>2030</v>
       </c>
-      <c r="M74" s="43">
+      <c r="M74" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16541,10 +16504,10 @@
       <c r="D75" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <v>2050</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G75" t="s">
@@ -16553,10 +16516,10 @@
       <c r="H75">
         <v>2021</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>2016</v>
       </c>
-      <c r="J75" s="48">
+      <c r="J75" s="45">
         <v>68</v>
       </c>
       <c r="K75" t="s">
@@ -16565,27 +16528,27 @@
       <c r="L75">
         <v>2030</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" t="s">
         <v>401</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>402</v>
       </c>
-      <c r="D76" t="s">
-        <v>403</v>
-      </c>
-      <c r="E76" s="30">
+      <c r="E76" s="28">
         <v>2050</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G76" t="s">
@@ -16594,10 +16557,10 @@
       <c r="H76">
         <v>2018</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <v>2018</v>
       </c>
-      <c r="J76" s="48">
+      <c r="J76" s="45">
         <v>171.52</v>
       </c>
       <c r="K76" t="s">
@@ -16606,383 +16569,383 @@
       <c r="L76">
         <v>2023</v>
       </c>
-      <c r="M76" s="43">
+      <c r="M76" s="40">
         <f>1-(J76-12.6)/J76</f>
         <v>7.3460820895522305E-2</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="B77" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="B77" s="86" t="s">
+      <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="D77" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="E77" s="78">
+        <v>2050</v>
+      </c>
+      <c r="F77" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="G77" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="H77" s="76">
+        <v>2018</v>
+      </c>
+      <c r="I77" s="79">
+        <v>2018</v>
+      </c>
+      <c r="J77" s="88">
+        <v>1</v>
+      </c>
+      <c r="K77" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="L77" s="76">
+        <v>2023</v>
+      </c>
+      <c r="M77" s="82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E77" s="87">
+      <c r="C78" t="s">
+        <v>406</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="28">
         <v>2050</v>
       </c>
-      <c r="F77" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="G77" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="H77" s="85">
-        <v>2018</v>
-      </c>
-      <c r="I77" s="88">
-        <v>2018</v>
-      </c>
-      <c r="J77" s="104">
-        <v>1</v>
-      </c>
-      <c r="K77" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="L77" s="85">
-        <v>2023</v>
-      </c>
-      <c r="M77" s="91">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="92" customFormat="1">
-      <c r="A78" t="s">
+      <c r="F78" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G78" t="s">
+        <v>297</v>
+      </c>
+      <c r="H78">
+        <v>2020</v>
+      </c>
+      <c r="I78" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J78" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K78" t="s">
         <v>405</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C78" t="s">
-        <v>407</v>
-      </c>
-      <c r="D78" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F78" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G78" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="H78" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I78" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J78" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K78" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L78" s="92">
+      <c r="L78">
         <v>2025</v>
       </c>
-      <c r="M78" s="103">
+      <c r="M78" s="40">
         <f>1-(957/1243)</f>
         <v>0.23008849557522126</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" t="s">
+        <v>406</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G79" t="s">
+        <v>297</v>
+      </c>
+      <c r="H79">
+        <v>2020</v>
+      </c>
+      <c r="I79" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J79" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K79" t="s">
         <v>405</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C79" t="s">
-        <v>407</v>
-      </c>
-      <c r="D79" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E79" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F79" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G79" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="H79" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I79" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J79" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K79" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L79" s="92">
+      <c r="L79">
         <v>2030</v>
       </c>
-      <c r="M79" s="103">
+      <c r="M79" s="40">
         <f>1-(612/1243)</f>
         <v>0.50764279967819792</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G80" t="s">
+        <v>297</v>
+      </c>
+      <c r="H80">
+        <v>2020</v>
+      </c>
+      <c r="I80" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J80" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K80" t="s">
         <v>405</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C80" t="s">
-        <v>407</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E80" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F80" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G80" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="H80" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I80" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J80" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K80" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L80" s="92">
+      <c r="L80">
         <v>2040</v>
       </c>
-      <c r="M80" s="103">
+      <c r="M80" s="40">
         <f>1-(280/1243)</f>
         <v>0.77473853580048269</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C81" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E81" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G81" t="s">
+        <v>297</v>
+      </c>
+      <c r="H81">
+        <v>2020</v>
+      </c>
+      <c r="I81" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J81" s="45">
+        <v>1243</v>
+      </c>
+      <c r="K81" t="s">
         <v>405</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C81" t="s">
-        <v>407</v>
-      </c>
-      <c r="D81" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E81" s="100">
+      <c r="L81">
         <v>2050</v>
       </c>
-      <c r="F81" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="H81" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I81" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J81" s="105">
-        <v>1243</v>
-      </c>
-      <c r="K81" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L81" s="92">
-        <v>2050</v>
-      </c>
-      <c r="M81" s="103">
+      <c r="M81" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" t="s">
+        <v>406</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G82" t="s">
+        <v>303</v>
+      </c>
+      <c r="H82">
+        <v>2020</v>
+      </c>
+      <c r="I82" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J82" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K82" t="s">
         <v>405</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C82" t="s">
-        <v>407</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E82" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F82" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G82" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="H82" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I82" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J82" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K82" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L82" s="92">
+      <c r="L82">
         <v>2025</v>
       </c>
-      <c r="M82" s="103">
+      <c r="M82" s="40">
         <f>1-(14998/15063)</f>
         <v>4.3152094536280661E-3</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G83" t="s">
+        <v>303</v>
+      </c>
+      <c r="H83">
+        <v>2020</v>
+      </c>
+      <c r="I83" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J83" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K83" t="s">
         <v>405</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C83" t="s">
-        <v>407</v>
-      </c>
-      <c r="D83" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E83" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F83" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G83" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="H83" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I83" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J83" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K83" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L83" s="92">
+      <c r="L83">
         <v>2030</v>
       </c>
-      <c r="M83" s="103">
+      <c r="M83" s="40">
         <f>1-(11493/15063)</f>
         <v>0.23700458076080466</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
+        <v>404</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G84" t="s">
+        <v>303</v>
+      </c>
+      <c r="H84">
+        <v>2020</v>
+      </c>
+      <c r="I84" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J84" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K84" t="s">
         <v>405</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C84" t="s">
-        <v>407</v>
-      </c>
-      <c r="D84" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E84" s="100">
-        <v>2050</v>
-      </c>
-      <c r="F84" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G84" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I84" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J84" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K84" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L84" s="92">
+      <c r="L84">
         <v>2040</v>
       </c>
-      <c r="M84" s="103">
+      <c r="M84" s="40">
         <f>1-(7819/15063)</f>
         <v>0.48091349664741423</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="28">
+        <v>2050</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G85" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85">
+        <v>2020</v>
+      </c>
+      <c r="I85" s="31">
+        <v>2019</v>
+      </c>
+      <c r="J85" s="45">
+        <v>15063</v>
+      </c>
+      <c r="K85" t="s">
         <v>405</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C85" t="s">
-        <v>407</v>
-      </c>
-      <c r="D85" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="100">
+      <c r="L85">
         <v>2050</v>
       </c>
-      <c r="F85" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="G85" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="H85" s="92">
-        <v>2020</v>
-      </c>
-      <c r="I85" s="101">
-        <v>2019</v>
-      </c>
-      <c r="J85" s="105">
-        <v>15063</v>
-      </c>
-      <c r="K85" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="L85" s="92">
-        <v>2050</v>
-      </c>
-      <c r="M85" s="103">
+      <c r="M85" s="40">
         <f>1-(4331/15063)</f>
         <v>0.71247427471287261</v>
       </c>
@@ -17000,10 +16963,10 @@
       <c r="D86" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="28">
         <v>2050</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G86" t="s">
@@ -17012,10 +16975,10 @@
       <c r="H86">
         <v>2020</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="31">
         <v>2007</v>
       </c>
-      <c r="J86" s="48">
+      <c r="J86" s="45">
         <v>0.98420553538837796</v>
       </c>
       <c r="K86" t="s">
@@ -17024,7 +16987,7 @@
       <c r="L86">
         <v>2030</v>
       </c>
-      <c r="M86" s="43">
+      <c r="M86" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17041,10 +17004,10 @@
       <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <v>2050</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G87" t="s">
@@ -17053,7 +17016,7 @@
       <c r="H87">
         <v>2021</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <v>2018</v>
       </c>
       <c r="J87">
@@ -17065,7 +17028,7 @@
       <c r="L87">
         <v>2025</v>
       </c>
-      <c r="M87" s="43">
+      <c r="M87" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17082,10 +17045,10 @@
       <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>2050</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G88" t="s">
@@ -17094,7 +17057,7 @@
       <c r="H88">
         <v>2021</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <v>2018</v>
       </c>
       <c r="J88">
@@ -17106,7 +17069,7 @@
       <c r="L88">
         <v>2030</v>
       </c>
-      <c r="M88" s="43">
+      <c r="M88" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17123,10 +17086,10 @@
       <c r="D89" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="28">
         <v>2050</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G89" t="s">
@@ -17135,10 +17098,10 @@
       <c r="H89">
         <v>2020</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="31">
         <v>2019</v>
       </c>
-      <c r="J89" s="48">
+      <c r="J89" s="45">
         <v>0.46760301224943002</v>
       </c>
       <c r="K89" t="s">
@@ -17147,7 +17110,7 @@
       <c r="L89">
         <v>2030</v>
       </c>
-      <c r="M89" s="43">
+      <c r="M89" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17164,7 +17127,7 @@
       <c r="D90" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G90" t="s">
@@ -17173,10 +17136,10 @@
       <c r="H90">
         <v>2021</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="31">
         <v>2018</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="45">
         <v>2.9</v>
       </c>
       <c r="K90" t="s">
@@ -17185,27 +17148,27 @@
       <c r="L90">
         <v>2030</v>
       </c>
-      <c r="M90" s="43">
+      <c r="M90" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" t="s">
         <v>411</v>
-      </c>
-      <c r="C91" t="s">
-        <v>412</v>
       </c>
       <c r="D91" t="s">
         <v>196</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="28">
         <v>2050</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G91" t="s">
@@ -17214,19 +17177,19 @@
       <c r="H91">
         <v>2020</v>
       </c>
-      <c r="I91" s="33">
+      <c r="I91" s="31">
         <v>2013</v>
       </c>
-      <c r="J91" s="48">
+      <c r="J91" s="45">
         <v>0.75</v>
       </c>
       <c r="K91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L91">
         <v>2030</v>
       </c>
-      <c r="M91" s="43">
+      <c r="M91" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17243,7 +17206,7 @@
       <c r="D92" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G92" t="s">
@@ -17252,10 +17215,10 @@
       <c r="H92">
         <v>2021</v>
       </c>
-      <c r="I92" s="33">
+      <c r="I92" s="31">
         <v>2018</v>
       </c>
-      <c r="J92" s="48">
+      <c r="J92" s="45">
         <v>1.69</v>
       </c>
       <c r="K92" t="s">
@@ -17264,7 +17227,7 @@
       <c r="L92">
         <v>2030</v>
       </c>
-      <c r="M92" s="43">
+      <c r="M92" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17281,10 +17244,10 @@
       <c r="D93" t="s">
         <v>54</v>
       </c>
-      <c r="E93" s="30">
+      <c r="E93" s="28">
         <v>2050</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G93" t="s">
@@ -17293,10 +17256,10 @@
       <c r="H93">
         <v>2021</v>
       </c>
-      <c r="I93" s="33">
+      <c r="I93" s="31">
         <v>2017</v>
       </c>
-      <c r="J93" s="48">
+      <c r="J93" s="45">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -17306,7 +17269,7 @@
       <c r="L93">
         <v>2030</v>
       </c>
-      <c r="M93" s="43">
+      <c r="M93" s="40">
         <v>0</v>
       </c>
     </row>
@@ -17323,10 +17286,10 @@
       <c r="D94" t="s">
         <v>54</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="28">
         <v>2050</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G94" t="s">
@@ -17335,10 +17298,10 @@
       <c r="H94">
         <v>2021</v>
       </c>
-      <c r="I94" s="33">
+      <c r="I94" s="31">
         <v>2017</v>
       </c>
-      <c r="J94" s="48">
+      <c r="J94" s="45">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -17348,7 +17311,7 @@
       <c r="L94">
         <v>2030</v>
       </c>
-      <c r="M94" s="43">
+      <c r="M94" s="40">
         <v>0</v>
       </c>
     </row>
@@ -17365,7 +17328,7 @@
       <c r="D95" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G95" t="s">
@@ -17374,10 +17337,10 @@
       <c r="H95">
         <v>2021</v>
       </c>
-      <c r="I95" s="33">
+      <c r="I95" s="31">
         <v>2018</v>
       </c>
-      <c r="J95" s="48">
+      <c r="J95" s="45">
         <v>0.42172199999999999</v>
       </c>
       <c r="K95" t="s">
@@ -17386,7 +17349,7 @@
       <c r="L95">
         <v>2030</v>
       </c>
-      <c r="M95" s="43">
+      <c r="M95" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -17403,10 +17366,10 @@
       <c r="D96" t="s">
         <v>196</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="28">
         <v>2050</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G96" t="s">
@@ -17415,10 +17378,10 @@
       <c r="H96">
         <v>2020</v>
       </c>
-      <c r="I96" s="33">
+      <c r="I96" s="31">
         <v>2020</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="46">
         <v>130</v>
       </c>
       <c r="K96" t="s">
@@ -17427,7 +17390,7 @@
       <c r="L96">
         <v>2030</v>
       </c>
-      <c r="M96" s="50">
+      <c r="M96" s="47">
         <v>0.2</v>
       </c>
     </row>
@@ -17444,19 +17407,19 @@
       <c r="D97" t="s">
         <v>196</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="28">
         <v>2050</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G97" t="s">
         <v>297</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="31">
         <v>2020</v>
       </c>
-      <c r="J97" s="49">
+      <c r="J97" s="46">
         <v>4.9000000000000004</v>
       </c>
       <c r="K97" t="s">
@@ -17465,7 +17428,7 @@
       <c r="L97">
         <v>2030</v>
       </c>
-      <c r="M97" s="50">
+      <c r="M97" s="47">
         <v>0.2</v>
       </c>
     </row>
@@ -17482,7 +17445,7 @@
       <c r="D98" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G98" t="s">
@@ -17491,10 +17454,10 @@
       <c r="H98">
         <v>2020</v>
       </c>
-      <c r="I98" s="33">
+      <c r="I98" s="31">
         <v>2018</v>
       </c>
-      <c r="J98" s="48">
+      <c r="J98" s="45">
         <v>0.315911</v>
       </c>
       <c r="K98" t="s">
@@ -17503,7 +17466,7 @@
       <c r="L98">
         <v>2030</v>
       </c>
-      <c r="M98" s="43">
+      <c r="M98" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17520,10 +17483,10 @@
       <c r="D99" t="s">
         <v>271</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="28">
         <v>2050</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G99" t="s">
@@ -17532,10 +17495,10 @@
       <c r="H99">
         <v>2021</v>
       </c>
-      <c r="I99" s="33">
+      <c r="I99" s="31">
         <v>2015</v>
       </c>
-      <c r="J99" s="48">
+      <c r="J99" s="45">
         <v>1.8</v>
       </c>
       <c r="K99" t="s">
@@ -17544,7 +17507,7 @@
       <c r="L99">
         <v>2030</v>
       </c>
-      <c r="M99" s="43">
+      <c r="M99" s="40">
         <v>0.16</v>
       </c>
     </row>
@@ -17561,10 +17524,10 @@
       <c r="D100" t="s">
         <v>271</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="28">
         <v>2050</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G100" t="s">
@@ -17573,10 +17536,10 @@
       <c r="H100">
         <v>2021</v>
       </c>
-      <c r="I100" s="33">
+      <c r="I100" s="31">
         <v>2015</v>
       </c>
-      <c r="J100" s="48">
+      <c r="J100" s="45">
         <v>3.7</v>
       </c>
       <c r="K100" t="s">
@@ -17585,49 +17548,49 @@
       <c r="L100">
         <v>2030</v>
       </c>
-      <c r="M100" s="43">
+      <c r="M100" s="40">
         <f>3.7/3.5-1</f>
         <v>5.7142857142857162E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="48" t="s">
         <v>274</v>
       </c>
       <c r="D101" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="51">
+      <c r="E101" s="48">
         <v>2050</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="H101" s="51">
+      <c r="H101" s="48">
         <v>2020</v>
       </c>
-      <c r="I101" s="51">
+      <c r="I101" s="48">
         <v>2005</v>
       </c>
-      <c r="J101" s="51">
+      <c r="J101" s="48">
         <v>11.6416389602593</v>
       </c>
-      <c r="K101" s="51" t="s">
+      <c r="K101" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="L101" s="51">
+      <c r="L101" s="48">
         <v>2050</v>
       </c>
-      <c r="M101" s="52">
+      <c r="M101" s="49">
         <v>1</v>
       </c>
     </row>
@@ -17644,10 +17607,10 @@
       <c r="D102" t="s">
         <v>54</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="28">
         <v>2050</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="F102" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G102" t="s">
@@ -17656,7 +17619,7 @@
       <c r="H102">
         <v>2020</v>
       </c>
-      <c r="I102" s="33">
+      <c r="I102" s="31">
         <v>2010</v>
       </c>
       <c r="J102">
@@ -17668,7 +17631,7 @@
       <c r="L102">
         <v>2030</v>
       </c>
-      <c r="M102" s="43">
+      <c r="M102" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -17685,10 +17648,10 @@
       <c r="D103" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="28">
         <v>2050</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G103" t="s">
@@ -17697,7 +17660,7 @@
       <c r="H103">
         <v>2020</v>
       </c>
-      <c r="I103" s="33">
+      <c r="I103" s="31">
         <v>2005</v>
       </c>
       <c r="J103">
@@ -17709,7 +17672,7 @@
       <c r="L103">
         <v>2025</v>
       </c>
-      <c r="M103" s="43">
+      <c r="M103" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -17726,10 +17689,10 @@
       <c r="D104" t="s">
         <v>54</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="28">
         <v>2050</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G104" t="s">
@@ -17738,7 +17701,7 @@
       <c r="H104">
         <v>2020</v>
       </c>
-      <c r="I104" s="33">
+      <c r="I104" s="31">
         <v>2005</v>
       </c>
       <c r="J104">
@@ -17750,7 +17713,7 @@
       <c r="L104">
         <v>2030</v>
       </c>
-      <c r="M104" s="43">
+      <c r="M104" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17767,10 +17730,10 @@
       <c r="D105" t="s">
         <v>54</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="28">
         <v>2050</v>
       </c>
-      <c r="F105" s="30" t="s">
+      <c r="F105" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G105" t="s">
@@ -17779,10 +17742,10 @@
       <c r="H105">
         <v>2020</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="31">
         <v>2018</v>
       </c>
-      <c r="J105" s="48">
+      <c r="J105" s="45">
         <v>0.315911</v>
       </c>
       <c r="K105" t="s">
@@ -17791,7 +17754,7 @@
       <c r="L105">
         <v>2030</v>
       </c>
-      <c r="M105" s="43">
+      <c r="M105" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17808,10 +17771,10 @@
       <c r="D106" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="28">
         <v>2050</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G106" t="s">
@@ -17820,10 +17783,10 @@
       <c r="H106">
         <v>2020</v>
       </c>
-      <c r="I106" s="33">
+      <c r="I106" s="31">
         <v>2005</v>
       </c>
-      <c r="J106" s="48">
+      <c r="J106" s="45">
         <v>0.88086205923584704</v>
       </c>
       <c r="K106" t="s">
@@ -17832,7 +17795,7 @@
       <c r="L106">
         <v>2030</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17856,9 +17819,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="51" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -17866,1202 +17829,1202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="56" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:6" s="50" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="50" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="53" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:6" s="50" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A17" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="50" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" t="s">
         <v>350</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" t="s">
         <v>350</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="68" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" t="s">
         <v>350</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" t="s">
         <v>350</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="68" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" t="s">
         <v>350</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" t="s">
         <v>350</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" t="s">
         <v>350</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" t="s">
         <v>350</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="68" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" t="s">
         <v>350</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" t="s">
         <v>350</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" t="s">
         <v>350</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" t="s">
         <v>350</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" t="s">
         <v>350</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" t="s">
         <v>350</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="68" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" t="s">
         <v>350</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" t="s">
         <v>350</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" t="s">
         <v>350</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" t="s">
         <v>350</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" t="s">
         <v>350</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" t="s">
         <v>370</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="F54" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" t="s">
         <v>372</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="80">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="112">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="32">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="E59" s="64" t="s">
+      <c r="E59" t="s">
         <v>380</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" t="s">
         <v>372</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" t="s">
         <v>322</v>
       </c>
     </row>
@@ -19078,8 +19041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E74"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19103,7 +19066,7 @@
         <v>384</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19120,8 +19083,7 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>68832316</v>
+        <v>108903676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19138,8 +19100,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>152305720</v>
+        <v>155504532</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19156,8 +19117,7 @@
         <v>68</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>233847000</v>
+        <v>142209529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19174,8 +19134,7 @@
         <v>71</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>187168320</v>
+        <v>73587432</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19192,8 +19151,7 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>128275650</v>
+        <v>225938874</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19210,8 +19168,7 @@
         <v>77</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>235306505</v>
+        <v>82561536</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19228,8 +19185,7 @@
         <v>80</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>157509030</v>
+        <v>106920999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -19246,8 +19202,7 @@
         <v>84</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>168842205</v>
+        <v>93612608</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19264,8 +19219,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>53466228</v>
+        <v>100104510</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19282,8 +19236,7 @@
         <v>97</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>146187600</v>
+        <v>121545580</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19300,8 +19253,7 @@
         <v>102</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>253481715</v>
+        <v>32233116</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19318,8 +19270,7 @@
         <v>105</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>112683165</v>
+        <v>53319736</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19336,8 +19287,7 @@
         <v>108</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>153460170</v>
+        <v>65593767</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19354,8 +19304,7 @@
         <v>111</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>84482944</v>
+        <v>41351837</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19372,8 +19321,7 @@
         <v>114</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>249493580</v>
+        <v>131778560</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19390,8 +19338,7 @@
         <v>117</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>58932835</v>
+        <v>227594948</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19408,8 +19355,7 @@
         <v>120</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>71511816</v>
+        <v>190603166</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19426,8 +19372,7 @@
         <v>123</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>67244849</v>
+        <v>150177860</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19444,8 +19389,7 @@
         <v>126</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>109306208</v>
+        <v>157634805</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19462,8 +19406,7 @@
         <v>129</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>166314225</v>
+        <v>182001796</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19480,8 +19423,7 @@
         <v>133</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>99504000</v>
+        <v>136594080</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19498,8 +19440,7 @@
         <v>136</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>62460992</v>
+        <v>57677508</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19516,8 +19457,7 @@
         <v>142</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>144934500</v>
+        <v>51215720</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19534,8 +19474,7 @@
         <v>145</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>191778540</v>
+        <v>81698701</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19552,8 +19491,7 @@
         <v>148</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>179418393</v>
+        <v>142831233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19570,8 +19508,7 @@
         <v>151</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>112617712</v>
+        <v>227950648</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19588,8 +19525,7 @@
         <v>154</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>66098098</v>
+        <v>201260928</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19606,8 +19542,7 @@
         <v>157</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>129228852</v>
+        <v>135008819</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19624,8 +19559,7 @@
         <v>160</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>89256489</v>
+        <v>124349770</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19642,8 +19576,7 @@
         <v>164</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>68423125</v>
+        <v>117913152</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19660,8 +19593,7 @@
         <v>168</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>150326524</v>
+        <v>76587962</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19678,8 +19610,7 @@
         <v>171</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>90563044</v>
+        <v>46274364</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19696,8 +19627,7 @@
         <v>175</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>230796219</v>
+        <v>68118474</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19714,26 +19644,24 @@
         <v>178</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>137330193</v>
+        <v>201232626</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>389</v>
       </c>
-      <c r="C36" t="s">
-        <v>390</v>
-      </c>
       <c r="D36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>101134146</v>
+        <v>54355620</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19750,8 +19678,7 @@
         <v>183</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>67504800</v>
+        <v>93093180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19768,8 +19695,7 @@
         <v>186</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>61809705</v>
+        <v>98974000</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19786,8 +19712,7 @@
         <v>189</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>98819124</v>
+        <v>74020206</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19804,8 +19729,7 @@
         <v>192</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>168203770</v>
+        <v>170336026</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19822,8 +19746,7 @@
         <v>195</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>136668824</v>
+        <v>94874192</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19840,8 +19763,7 @@
         <v>200</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>278647362</v>
+        <v>53887675</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19858,8 +19780,7 @@
         <v>203</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>162884340</v>
+        <v>48101760</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19876,44 +19797,41 @@
         <v>206</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>148234320</v>
+        <v>146261913</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>393</v>
       </c>
-      <c r="C45" t="s">
-        <v>394</v>
-      </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>53401180</v>
+        <v>145127520</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>80297398</v>
+        <v>215331120</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -19930,8 +19848,7 @@
         <v>209</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>164288430</v>
+        <v>90802584</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -19948,8 +19865,7 @@
         <v>212</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>214713182</v>
+        <v>115390650</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -19966,8 +19882,7 @@
         <v>215</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>163208024</v>
+        <v>169952310</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -19984,8 +19899,7 @@
         <v>219</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>144537792</v>
+        <v>254070276</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20002,8 +19916,7 @@
         <v>222</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>161697736</v>
+        <v>144571880</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20020,8 +19933,7 @@
         <v>225</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>83234738</v>
+        <v>215781707</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20038,8 +19950,7 @@
         <v>228</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>87693440</v>
+        <v>50935728</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20056,8 +19967,7 @@
         <v>231</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>175351000</v>
+        <v>159633668</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20074,8 +19984,7 @@
         <v>235</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>122424128</v>
+        <v>111666988</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20092,44 +20001,41 @@
         <v>238</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>74779950</v>
+        <v>101576056</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>399</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" t="s">
         <v>401</v>
       </c>
-      <c r="C57" t="s">
-        <v>402</v>
-      </c>
       <c r="D57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>157312356</v>
+        <v>112372680</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>64385520</v>
+        <v>131258188</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20146,8 +20052,7 @@
         <v>242</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>33057273</v>
+        <v>193838365</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20164,8 +20069,7 @@
         <v>245</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>54000282</v>
+        <v>124242720</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20182,8 +20086,7 @@
         <v>248</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>76655110</v>
+        <v>215513064</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20200,26 +20103,24 @@
         <v>251</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>40563872</v>
+        <v>56947776</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
         <v>411</v>
       </c>
-      <c r="C63" t="s">
-        <v>412</v>
-      </c>
       <c r="D63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>90616428</v>
+        <v>101339946</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20236,8 +20137,7 @@
         <v>255</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="0"/>
-        <v>177878022</v>
+        <v>98609680</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20254,8 +20154,7 @@
         <v>258</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="0"/>
-        <v>56648650</v>
+        <v>178874625</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20272,8 +20171,7 @@
         <v>261</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="0"/>
-        <v>85382970</v>
+        <v>89248230</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20290,8 +20188,7 @@
         <v>264</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E74" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>76207878</v>
+        <v>56001264</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20308,8 +20205,7 @@
         <v>267</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="1"/>
-        <v>65026548</v>
+        <v>282630756</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20326,8 +20222,7 @@
         <v>270</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="1"/>
-        <v>100886504</v>
+        <v>85517520</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20344,8 +20239,7 @@
         <v>274</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="1"/>
-        <v>109852535</v>
+        <v>234527392</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -20362,8 +20256,7 @@
         <v>277</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="1"/>
-        <v>57337296</v>
+        <v>147501681</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -20380,8 +20273,7 @@
         <v>280</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="1"/>
-        <v>168020900</v>
+        <v>95046952</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -20398,8 +20290,7 @@
         <v>283</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="1"/>
-        <v>133300482</v>
+        <v>122092600</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -20416,8 +20307,7 @@
         <v>286</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="1"/>
-        <v>114252056</v>
+        <v>243368532</v>
       </c>
     </row>
   </sheetData>
